--- a/uploads/Test2.xlsx
+++ b/uploads/Test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="12240" windowHeight="7995"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="C4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="1">
+    <comment ref="F4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -125,30 +125,6 @@
           </rPr>
           <t xml:space="preserve">
 This refers to the specific individual responsible for compliance within the Sundance group when Cam Iron or any other Project Company is the Party accountable for compliance. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Road Map of the Mbalam Mining Convention - Conditions Precedent:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This is the specific deadline assigned to the person in charge of action within Cam Iron or Sundance. </t>
         </r>
       </text>
     </comment>
@@ -172,7 +148,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-This is the authority in charge of compliance where the State is the Party accountable for compliance. </t>
+This is the specific deadline assigned to the person in charge of action within Cam Iron or Sundance. </t>
         </r>
       </text>
     </comment>
@@ -196,12 +172,36 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+This is the authority in charge of compliance where the State is the Party accountable for compliance. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Road Map of the Mbalam Mining Convention - Conditions Precedent:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 We would like to draw your attention to the fact that as per article 4.5(c) of the Convention, "each Party shall notify the other Party in writting of the occurrence of any event likely to prevent the Conditions Precedent from being satisfied before, or no later than, on the CP Long Stop Date, as soon as the Party became aware of the relevant event".
 Thus, if any of the actions necessary for the satisfaction of the Condition Precedent which the subject of this table is prevented for any reason, Cam Iron should, without delay, bring this situation to the attention of the State. </t>
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0">
+    <comment ref="L4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -257,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="C6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -288,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0">
+    <comment ref="J6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -312,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0">
+    <comment ref="C8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -337,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="C9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -388,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0">
+    <comment ref="M9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -642,7 +642,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -863,6 +863,17 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
       <top style="medium">
         <color theme="0" tint="-0.499984740745262"/>
       </top>
@@ -1075,21 +1086,126 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1098,139 +1214,43 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1535,7 +1555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:O9"/>
+  <dimension ref="A3:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
@@ -1543,206 +1563,213 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.140625" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="G4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="H4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="I4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="J4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="3"/>
+      <c r="L4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="M4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="40"/>
-      <c r="N4" s="43" t="s">
+      <c r="N4" s="3"/>
+      <c r="O4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="44"/>
+      <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:15" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="1" t="s">
+    <row r="5" spans="1:16" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="36"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="46"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="20"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="D6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="E6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="34">
+      <c r="G6" s="27">
         <v>41019</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="28"/>
+      <c r="I6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="J6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="30"/>
+      <c r="L6" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="M6" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="22"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="34"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="22"/>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="34"/>
     </row>
-    <row r="8" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="41">
         <v>40913</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="28"/>
+      <c r="I8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="22"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="34"/>
     </row>
-    <row r="9" spans="1:15" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="1:16" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="10">
+      <c r="G9" s="49">
         <v>41058</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="50"/>
+      <c r="I9" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="25" t="s">
+      <c r="J9" s="50"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="24"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="M6:N8"/>
+    <mergeCell ref="O6:P9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="A6:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="A4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="N6:O9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="L6:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
